--- a/EPIGseqManuscript/method-comparison.xlsx
+++ b/EPIGseqManuscript/method-comparison.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="simulation-param" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>EPIG</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>Group4</t>
+  </si>
+  <si>
+    <t>Patterns compared</t>
+  </si>
+  <si>
+    <t>NMI</t>
+  </si>
+  <si>
+    <t>1 vs. 2</t>
+  </si>
+  <si>
+    <t>1 vs. 4</t>
+  </si>
+  <si>
+    <t>1 vs. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 vs. 3 </t>
+  </si>
+  <si>
+    <t>2 vs. 4</t>
+  </si>
+  <si>
+    <t>3 vs. 4</t>
   </si>
 </sst>
 </file>
@@ -646,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -804,12 +828,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>